--- a/results/mp/logistic/home-spam/confidence/126/stop-words-topk-desired-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/126/stop-words-topk-desired-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="125">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,222 +43,243 @@
     <t>return</t>
   </si>
   <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>waste</t>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>poor</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>thin</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>stopped</t>
+    <t>months</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>filters</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>sent</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>filter</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>cheap</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>grind</t>
+  </si>
+  <si>
+    <t>cracked</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>useless</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>lid</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>seal</t>
+  </si>
+  <si>
+    <t>received</t>
+  </si>
+  <si>
+    <t>iron</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
-    <t>months</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>lid</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>sent</t>
-  </si>
-  <si>
-    <t>grind</t>
-  </si>
-  <si>
-    <t>useless</t>
-  </si>
-  <si>
-    <t>however</t>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>piece</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>filters</t>
-  </si>
-  <si>
-    <t>received</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>apart</t>
+    <t>less</t>
   </si>
   <si>
     <t>worked</t>
   </si>
   <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>iron</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>fit</t>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>rust</t>
+  </si>
+  <si>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>lasted</t>
   </si>
   <si>
     <t>way</t>
   </si>
   <si>
+    <t>unit</t>
+  </si>
+  <si>
     <t>side</t>
   </si>
   <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>machine</t>
+    <t>tried</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>sharpe</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
     <t>think</t>
   </si>
   <si>
-    <t>rust</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>bottom</t>
-  </si>
-  <si>
-    <t>glass</t>
+    <t>maker</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>put</t>
   </si>
   <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
     <t>hold</t>
   </si>
   <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>came</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
-    <t>keep</t>
+    <t>two</t>
   </si>
   <si>
     <t>first</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
     <t>money</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
     <t>get</t>
   </si>
   <si>
+    <t>still</t>
+  </si>
+  <si>
     <t>expected</t>
   </si>
   <si>
-    <t>two</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
-    <t>better</t>
+    <t>bought</t>
   </si>
   <si>
     <t>made</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
@@ -271,22 +292,28 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>pleased</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>best</t>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>glad</t>
   </si>
   <si>
     <t>salad</t>
@@ -295,52 +322,67 @@
     <t>highly</t>
   </si>
   <si>
-    <t>glad</t>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>ze</t>
   </si>
   <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>potatoes</t>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>cakes</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>cream</t>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>ice</t>
   </si>
   <si>
     <t>pressure</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
     <t>keeps</t>
   </si>
   <si>
+    <t>kitchen</t>
+  </si>
+  <si>
     <t>sturdy</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
+    <t>years</t>
+  </si>
+  <si>
     <t>works</t>
   </si>
   <si>
     <t>good</t>
+  </si>
+  <si>
+    <t>quality</t>
   </si>
   <si>
     <t>well</t>
@@ -704,7 +746,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q76"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -712,10 +754,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J1" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -794,16 +836,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K3">
-        <v>0.9247311827956989</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L3">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M3">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -815,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -823,13 +865,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9494949494949495</v>
+        <v>0.940677966101695</v>
       </c>
       <c r="C4">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D4">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -841,19 +883,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K4">
-        <v>0.9140625</v>
+        <v>0.9453125</v>
       </c>
       <c r="L4">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M4">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -865,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -873,13 +915,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9322033898305084</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C5">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D5">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -891,19 +933,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K5">
-        <v>0.8695652173913043</v>
+        <v>0.8406779661016949</v>
       </c>
       <c r="L5">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c r="M5">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -915,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -923,13 +965,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9027027027027027</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="C6">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -941,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K6">
-        <v>0.8591331269349846</v>
+        <v>0.8390092879256966</v>
       </c>
       <c r="L6">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="M6">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -965,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -973,13 +1015,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8767123287671232</v>
+        <v>0.9</v>
       </c>
       <c r="C7">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -991,19 +1033,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K7">
-        <v>0.8406779661016949</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="L7">
-        <v>248</v>
+        <v>38</v>
       </c>
       <c r="M7">
-        <v>248</v>
+        <v>38</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1015,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1023,13 +1065,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8592592592592593</v>
+        <v>0.8972972972972973</v>
       </c>
       <c r="C8">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="D8">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1044,16 +1086,16 @@
         <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K8">
-        <v>0.8311688311688312</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="L8">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M8">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1065,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1073,13 +1115,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8555555555555555</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="C9">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="D9">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1091,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K9">
-        <v>0.7631578947368421</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L9">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="M9">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1115,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1123,13 +1165,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8461538461538461</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C10">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="D10">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1141,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K10">
-        <v>0.7359307359307359</v>
+        <v>0.7236842105263158</v>
       </c>
       <c r="L10">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="M10">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1165,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1173,13 +1215,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8301886792452831</v>
+        <v>0.8653846153846154</v>
       </c>
       <c r="C11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1191,19 +1233,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K11">
-        <v>0.6986301369863014</v>
+        <v>0.675</v>
       </c>
       <c r="L11">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="M11">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1215,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1223,13 +1265,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7931034482758621</v>
+        <v>0.863013698630137</v>
       </c>
       <c r="C12">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D12">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1241,19 +1283,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K12">
-        <v>0.5675675675675675</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L12">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="M12">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1265,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1273,13 +1315,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7906976744186046</v>
+        <v>0.8444444444444444</v>
       </c>
       <c r="C13">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D13">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1291,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K13">
-        <v>0.5416666666666666</v>
+        <v>0.6164383561643836</v>
       </c>
       <c r="L13">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="M13">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1315,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1323,13 +1365,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7743589743589744</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="C14">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="D14">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1341,19 +1383,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K14">
-        <v>0.5072463768115942</v>
+        <v>0.5765765765765766</v>
       </c>
       <c r="L14">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="M14">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1365,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1373,13 +1415,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7692307692307693</v>
+        <v>0.8382352941176471</v>
       </c>
       <c r="C15">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D15">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1391,19 +1433,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K15">
-        <v>0.4742857142857143</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L15">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="M15">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1415,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>92</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1423,13 +1465,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7641509433962265</v>
+        <v>0.8062015503875969</v>
       </c>
       <c r="C16">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="D16">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1444,28 +1486,28 @@
         <v>25</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K16">
-        <v>0.4633950120675784</v>
+        <v>0.4971428571428572</v>
       </c>
       <c r="L16">
-        <v>576</v>
+        <v>87</v>
       </c>
       <c r="M16">
-        <v>579</v>
+        <v>87</v>
       </c>
       <c r="N16">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>667</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1473,13 +1515,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7567567567567568</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C17">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="D17">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1491,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K17">
-        <v>0.4444444444444444</v>
+        <v>0.4827031375703942</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>600</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>603</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1512,10 +1554,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>45</v>
+        <v>643</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1523,13 +1565,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7435897435897436</v>
+        <v>0.7897435897435897</v>
       </c>
       <c r="C18">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="D18">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1541,19 +1583,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K18">
-        <v>0.4285714285714285</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1565,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1573,13 +1615,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.74</v>
+        <v>0.7636363636363637</v>
       </c>
       <c r="C19">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D19">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1594,16 +1636,16 @@
         <v>13</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K19">
-        <v>0.4225352112676056</v>
+        <v>0.4202898550724637</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1615,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1623,49 +1665,49 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7358490566037735</v>
+        <v>0.7635135135135135</v>
       </c>
       <c r="C20">
+        <v>113</v>
+      </c>
+      <c r="D20">
+        <v>113</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>35</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K20">
+        <v>0.417910447761194</v>
+      </c>
+      <c r="L20">
+        <v>28</v>
+      </c>
+      <c r="M20">
+        <v>29</v>
+      </c>
+      <c r="N20">
+        <v>0.97</v>
+      </c>
+      <c r="O20">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20">
         <v>39</v>
-      </c>
-      <c r="D20">
-        <v>39</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>14</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K20">
-        <v>0.3529411764705883</v>
-      </c>
-      <c r="L20">
-        <v>24</v>
-      </c>
-      <c r="M20">
-        <v>24</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1673,13 +1715,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7272727272727273</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C21">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D21">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1691,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K21">
-        <v>0.3297872340425532</v>
+        <v>0.40625</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1715,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1723,13 +1765,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6991150442477876</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="C22">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="D22">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1741,19 +1783,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K22">
-        <v>0.263013698630137</v>
+        <v>0.3943661971830986</v>
       </c>
       <c r="L22">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1765,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>538</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1773,13 +1815,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6911764705882353</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C23">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D23">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1791,19 +1833,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K23">
-        <v>0.25</v>
+        <v>0.3223593964334705</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>235</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>236</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1812,10 +1854,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>78</v>
+        <v>494</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1823,13 +1865,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6909090909090909</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="C24">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D24">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1841,19 +1883,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K24">
-        <v>0.1721854304635762</v>
+        <v>0.3173076923076923</v>
       </c>
       <c r="L24">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M24">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1865,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>125</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1873,13 +1915,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6901408450704225</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C25">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D25">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1891,31 +1933,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K25">
-        <v>0.1497005988023952</v>
+        <v>0.2803030303030303</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M25">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>142</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1923,13 +1965,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.675</v>
+        <v>0.725</v>
       </c>
       <c r="C26">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D26">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1941,31 +1983,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="K26">
-        <v>0.1305418719211823</v>
+        <v>0.2717391304347826</v>
       </c>
       <c r="L26">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="M26">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N26">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>353</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1973,13 +2015,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6410256410256411</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="C27">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="D27">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1991,31 +2033,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="K27">
-        <v>0.0703851261620186</v>
+        <v>0.2659574468085106</v>
       </c>
       <c r="L27">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="M27">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N27">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>700</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2023,13 +2065,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6213592233009708</v>
+        <v>0.7079646017699115</v>
       </c>
       <c r="C28">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D28">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2041,31 +2083,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="K28">
-        <v>0.04103671706263499</v>
+        <v>0.22</v>
       </c>
       <c r="L28">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M28">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="N28">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="O28">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>888</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2073,13 +2115,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6136363636363636</v>
+        <v>0.7</v>
       </c>
       <c r="C29">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="D29">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2091,31 +2133,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="K29">
-        <v>0.03350515463917526</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L29">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M29">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N29">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.1899999999999999</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>750</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2123,13 +2165,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5961538461538461</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="C30">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="D30">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2141,7 +2183,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>42</v>
+        <v>11</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K30">
+        <v>0.1497005988023952</v>
+      </c>
+      <c r="L30">
+        <v>25</v>
+      </c>
+      <c r="M30">
+        <v>25</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2149,13 +2215,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5858585858585859</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C31">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D31">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2167,7 +2233,31 @@
         <v>0</v>
       </c>
       <c r="H31">
+        <v>36</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K31">
+        <v>0.1009852216748768</v>
+      </c>
+      <c r="L31">
         <v>41</v>
+      </c>
+      <c r="M31">
+        <v>43</v>
+      </c>
+      <c r="N31">
+        <v>0.95</v>
+      </c>
+      <c r="O31">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>365</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2175,39 +2265,63 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5454545454545454</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="C32">
+        <v>28</v>
+      </c>
+      <c r="D32">
+        <v>28</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>17</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K32">
+        <v>0.09375</v>
+      </c>
+      <c r="L32">
         <v>24</v>
       </c>
-      <c r="D32">
-        <v>24</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="M32">
+        <v>25</v>
+      </c>
+      <c r="N32">
+        <v>0.96</v>
+      </c>
+      <c r="O32">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5384615384615384</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C33">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D33">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2219,21 +2333,45 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K33">
+        <v>0.05992010652463382</v>
+      </c>
+      <c r="L33">
+        <v>45</v>
+      </c>
+      <c r="M33">
+        <v>49</v>
+      </c>
+      <c r="N33">
+        <v>0.92</v>
+      </c>
+      <c r="O33">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5195530726256983</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C34">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="D34">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2245,21 +2383,45 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K34">
+        <v>0.05519480519480519</v>
+      </c>
+      <c r="L34">
+        <v>51</v>
+      </c>
+      <c r="M34">
+        <v>56</v>
+      </c>
+      <c r="N34">
+        <v>0.91</v>
+      </c>
+      <c r="O34">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5158730158730159</v>
+        <v>0.6136363636363636</v>
       </c>
       <c r="C35">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D35">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2271,21 +2433,45 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K35">
+        <v>0.05489260143198091</v>
+      </c>
+      <c r="L35">
+        <v>23</v>
+      </c>
+      <c r="M35">
+        <v>23</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5111111111111111</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="C36">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D36">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2297,21 +2483,45 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K36">
+        <v>0.05019305019305019</v>
+      </c>
+      <c r="L36">
+        <v>39</v>
+      </c>
+      <c r="M36">
+        <v>44</v>
+      </c>
+      <c r="N36">
+        <v>0.89</v>
+      </c>
+      <c r="O36">
+        <v>0.11</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.49</v>
+        <v>0.6019417475728155</v>
       </c>
       <c r="C37">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D37">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2323,21 +2533,21 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.47</v>
+        <v>0.5632183908045977</v>
       </c>
       <c r="C38">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="D38">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2349,21 +2559,21 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.4635761589403973</v>
+        <v>0.5586592178770949</v>
       </c>
       <c r="C39">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D39">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2375,21 +2585,21 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.462962962962963</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C40">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D40">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2401,21 +2611,21 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.4576271186440678</v>
+        <v>0.535</v>
       </c>
       <c r="C41">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="D41">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2427,21 +2637,21 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.4432989690721649</v>
+        <v>0.492063492063492</v>
       </c>
       <c r="C42">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="D42">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2453,47 +2663,47 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.4378378378378379</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="C43">
-        <v>162</v>
+        <v>39</v>
       </c>
       <c r="D43">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c r="E43">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.4324324324324325</v>
+        <v>0.4691358024691358</v>
       </c>
       <c r="C44">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D44">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2505,21 +2715,21 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.4320987654320987</v>
+        <v>0.4639175257731959</v>
       </c>
       <c r="C45">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D45">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2531,21 +2741,21 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.4285714285714285</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="C46">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="D46">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2557,21 +2767,21 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.4137931034482759</v>
+        <v>0.456953642384106</v>
       </c>
       <c r="C47">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D47">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2583,21 +2793,21 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.3734939759036144</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="C48">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D48">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2609,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2617,13 +2827,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.360655737704918</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C49">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D49">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2635,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2643,25 +2853,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.3565891472868217</v>
+        <v>0.4387755102040816</v>
       </c>
       <c r="C50">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D50">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>83</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2669,13 +2879,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.3552631578947368</v>
+        <v>0.4097035040431267</v>
       </c>
       <c r="C51">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="D51">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2687,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>49</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2695,13 +2905,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.3539325842696629</v>
+        <v>0.3952380952380952</v>
       </c>
       <c r="C52">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="D52">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2713,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2721,13 +2931,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.3232323232323233</v>
+        <v>0.3883495145631068</v>
       </c>
       <c r="C53">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D53">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2739,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2747,13 +2957,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.3231292517006803</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="C54">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="D54">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2765,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>199</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2773,25 +2983,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.3106796116504854</v>
+        <v>0.3579545454545455</v>
       </c>
       <c r="C55">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="D55">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>71</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2799,13 +3009,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2857142857142857</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C56">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D56">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2817,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2825,25 +3035,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2702702702702703</v>
+        <v>0.3012048192771085</v>
       </c>
       <c r="C57">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D57">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E57">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F57">
-        <v>0.98</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>135</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2851,13 +3061,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.236734693877551</v>
+        <v>0.2920353982300885</v>
       </c>
       <c r="C58">
-        <v>174</v>
+        <v>33</v>
       </c>
       <c r="D58">
-        <v>174</v>
+        <v>33</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2869,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>561</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2877,25 +3087,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2344827586206897</v>
+        <v>0.2880434782608696</v>
       </c>
       <c r="C59">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D59">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>111</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2903,13 +3113,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2140468227424749</v>
+        <v>0.272108843537415</v>
       </c>
       <c r="C60">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D60">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2921,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>235</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2929,25 +3139,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.2108843537414966</v>
+        <v>0.2670299727520436</v>
       </c>
       <c r="C61">
-        <v>31</v>
+        <v>196</v>
       </c>
       <c r="D61">
-        <v>31</v>
+        <v>197</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>116</v>
+        <v>538</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2955,25 +3165,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.2081218274111675</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="C62">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D62">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E62">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>156</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2981,13 +3191,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1946902654867257</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="C63">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D63">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2999,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>91</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3007,25 +3217,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1921397379912664</v>
+        <v>0.2209944751381215</v>
       </c>
       <c r="C64">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D64">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>185</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3033,25 +3243,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1730013106159895</v>
+        <v>0.2112676056338028</v>
       </c>
       <c r="C65">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="D65">
-        <v>136</v>
+        <v>30</v>
       </c>
       <c r="E65">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>631</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3059,25 +3269,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1712707182320442</v>
+        <v>0.2046979865771812</v>
       </c>
       <c r="C66">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D66">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="E66">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F66">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>150</v>
+        <v>237</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3085,13 +3295,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1365853658536585</v>
+        <v>0.1758241758241758</v>
       </c>
       <c r="C67">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D67">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3103,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>354</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3111,13 +3321,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C68">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D68">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3129,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>143</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3137,13 +3347,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1208791208791209</v>
+        <v>0.165938864628821</v>
       </c>
       <c r="C69">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D69">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3155,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>160</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3163,25 +3373,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1099744245524297</v>
+        <v>0.1647058823529412</v>
       </c>
       <c r="C70">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="D70">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="E70">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="F70">
-        <v>0.9299999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>348</v>
+        <v>639</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3189,13 +3399,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1072463768115942</v>
+        <v>0.1634146341463415</v>
       </c>
       <c r="C71">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D71">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3207,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>308</v>
+        <v>343</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3215,25 +3425,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1033210332103321</v>
+        <v>0.1464968152866242</v>
       </c>
       <c r="C72">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D72">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E72">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="F72">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>243</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3241,25 +3451,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.0705596107055961</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C73">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D73">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E73">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>382</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3267,25 +3477,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.06845965770171149</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C74">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D74">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E74">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="F74">
-        <v>0.9299999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>381</v>
+        <v>345</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3293,25 +3503,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.0445414847161572</v>
+        <v>0.1119402985074627</v>
       </c>
       <c r="C75">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D75">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="E75">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="F75">
-        <v>0.8100000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>1094</v>
+        <v>238</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3319,25 +3529,207 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.032015065913371</v>
+        <v>0.09565217391304348</v>
       </c>
       <c r="C76">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D76">
+        <v>33</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77">
+        <v>0.09113300492610837</v>
+      </c>
+      <c r="C77">
+        <v>37</v>
+      </c>
+      <c r="D77">
+        <v>42</v>
+      </c>
+      <c r="E77">
+        <v>0.12</v>
+      </c>
+      <c r="F77">
+        <v>0.88</v>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78">
+        <v>0.08801955990220049</v>
+      </c>
+      <c r="C78">
+        <v>36</v>
+      </c>
+      <c r="D78">
+        <v>41</v>
+      </c>
+      <c r="E78">
+        <v>0.12</v>
+      </c>
+      <c r="F78">
+        <v>0.88</v>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79">
+        <v>0.07443082311733801</v>
+      </c>
+      <c r="C79">
+        <v>85</v>
+      </c>
+      <c r="D79">
+        <v>100</v>
+      </c>
+      <c r="E79">
+        <v>0.15</v>
+      </c>
+      <c r="F79">
+        <v>0.85</v>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80">
+        <v>0.07202216066481995</v>
+      </c>
+      <c r="C80">
+        <v>26</v>
+      </c>
+      <c r="D80">
+        <v>30</v>
+      </c>
+      <c r="E80">
+        <v>0.13</v>
+      </c>
+      <c r="F80">
+        <v>0.87</v>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81">
+        <v>0.06575342465753424</v>
+      </c>
+      <c r="C81">
+        <v>24</v>
+      </c>
+      <c r="D81">
+        <v>30</v>
+      </c>
+      <c r="E81">
+        <v>0.2</v>
+      </c>
+      <c r="F81">
+        <v>0.8</v>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82">
+        <v>0.05576923076923077</v>
+      </c>
+      <c r="C82">
+        <v>29</v>
+      </c>
+      <c r="D82">
+        <v>31</v>
+      </c>
+      <c r="E82">
+        <v>0.06</v>
+      </c>
+      <c r="F82">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83">
+        <v>0.04143126177024482</v>
+      </c>
+      <c r="C83">
         <v>44</v>
       </c>
-      <c r="E76">
-        <v>0.23</v>
-      </c>
-      <c r="F76">
-        <v>0.77</v>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76">
-        <v>1028</v>
+      <c r="D83">
+        <v>54</v>
+      </c>
+      <c r="E83">
+        <v>0.19</v>
+      </c>
+      <c r="F83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>1018</v>
       </c>
     </row>
   </sheetData>
